--- a/r5-ELGA-MOPED-MOPED-POC-IG/ValueSet-moped-aufnahmeart-valueset.xlsx
+++ b/r5-ELGA-MOPED-MOPED-POC-IG/ValueSet-moped-aufnahmeart-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T11:21:28+00:00</t>
+    <t>2024-09-30T11:46:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-MOPED-POC-IG/ValueSet-moped-aufnahmeart-valueset.xlsx
+++ b/r5-ELGA-MOPED-MOPED-POC-IG/ValueSet-moped-aufnahmeart-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T11:46:21+00:00</t>
+    <t>2024-09-30T18:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-MOPED-POC-IG/ValueSet-moped-aufnahmeart-valueset.xlsx
+++ b/r5-ELGA-MOPED-MOPED-POC-IG/ValueSet-moped-aufnahmeart-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T18:57:01+00:00</t>
+    <t>2024-09-30T19:55:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-MOPED-POC-IG/ValueSet-moped-aufnahmeart-valueset.xlsx
+++ b/r5-ELGA-MOPED-MOPED-POC-IG/ValueSet-moped-aufnahmeart-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T19:55:10+00:00</t>
+    <t>2024-09-30T20:11:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
